--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF4164D-5AAE-4568-BC45-4D7CC5364BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747448F2-5982-49A3-A87C-F854BD1F62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -305,6 +305,889 @@
     <t>～の演出をする</t>
     <rPh sb="2" eb="4">
       <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dwarf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矮小化する</t>
+    <rPh sb="0" eb="3">
+      <t>ワイショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epicenter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>震央</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hallmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>holocaust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obstruct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pinpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retaliate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scintillating</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topography</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vapor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deceptive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fascist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fowl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memoir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>necessiate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nourishing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parcel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restructure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contempt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>harbinger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heresy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>improvise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>malnutrition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mantle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>narcotic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordinal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>partisan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proctor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retrospect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tenet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vertebra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>congruent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyclical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deportation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dilute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entropy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evoke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genocide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grapple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hegemony</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incubate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perimeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>streamline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vantage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>withstand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biometrics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connotation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>courthouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disfigure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egalitarian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lineage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>patriarch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acreage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aeronautics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geothermal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inhale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nomad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autocrat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingenious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特質</t>
+    <rPh sb="0" eb="2">
+      <t>トクシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大虐殺</t>
+    <rPh sb="0" eb="3">
+      <t>ダイギャクサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修道女</t>
+    <rPh sb="0" eb="3">
+      <t>シュウドウオンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を妨害する</t>
+    <rPh sb="2" eb="4">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（本質などを）正確に示す</t>
+    <rPh sb="1" eb="3">
+      <t>ホンシツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕返しする</t>
+    <rPh sb="0" eb="2">
+      <t>シカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機知に富んだ</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形学</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蒸気</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファシズム主義者</t>
+    <rPh sb="5" eb="8">
+      <t>シュギシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家禽;鶏肉</t>
+    <rPh sb="0" eb="2">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（情報・支持など）を得る;蓄え</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タクワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回顧録</t>
+    <rPh sb="0" eb="3">
+      <t>カイコロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を必要とする</t>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養価の高い</t>
+    <rPh sb="0" eb="3">
+      <t>エイヨウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一区間</t>
+    <rPh sb="0" eb="3">
+      <t>イチクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集まる</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を再構築する</t>
+    <rPh sb="2" eb="5">
+      <t>サイコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を尊敬する</t>
+    <rPh sb="2" eb="4">
+      <t>ソンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼地</t>
+    <rPh sb="0" eb="2">
+      <t>ヌマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をぼやけさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽蔑</t>
+    <rPh sb="0" eb="2">
+      <t>ケイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兆し</t>
+    <rPh sb="0" eb="1">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異説</t>
+    <rPh sb="0" eb="2">
+      <t>イセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を即興で作る</t>
+    <rPh sb="2" eb="4">
+      <t>ソッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養失調</t>
+    <rPh sb="0" eb="4">
+      <t>エイヨウシッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マントル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻酔薬</t>
+    <rPh sb="0" eb="3">
+      <t>マスイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>序数の</t>
+    <rPh sb="0" eb="2">
+      <t>ジョスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派閥中心の</t>
+    <rPh sb="0" eb="4">
+      <t>ハバツチュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験監督官</t>
+    <rPh sb="0" eb="5">
+      <t>シケンカントクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>噂される</t>
+    <rPh sb="0" eb="1">
+      <t>ウワサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回想</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を徐々に奪う;樹液</t>
+    <rPh sb="2" eb="6">
+      <t>ジョジョニウバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い争う</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アラソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主義</t>
+    <rPh sb="0" eb="2">
+      <t>シュギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脊椎</t>
+    <rPh sb="0" eb="2">
+      <t>セキツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致する</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循環の</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国外退去</t>
+    <rPh sb="0" eb="4">
+      <t>コクガイタイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を薄める</t>
+    <rPh sb="2" eb="3">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を想起させる</t>
+    <rPh sb="2" eb="4">
+      <t>ソウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無秩序</t>
+    <rPh sb="0" eb="3">
+      <t>ムチツジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り組む</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支配権</t>
+    <rPh sb="0" eb="3">
+      <t>シハイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を培養する</t>
+    <rPh sb="2" eb="4">
+      <t>バイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界;円周</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>困り者</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を流線形にする</t>
+    <rPh sb="2" eb="5">
+      <t>リュウセンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見晴らしのいい地点</t>
+    <rPh sb="0" eb="2">
+      <t>ミハ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に対抗する</t>
+    <rPh sb="2" eb="4">
+      <t>タイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生体認証</t>
+    <rPh sb="0" eb="4">
+      <t>セイタイニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を強化する</t>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言外の意味</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判所</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～の外観を台無しにする</t>
+    <rPh sb="2" eb="4">
+      <t>ガイカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平等主義者</t>
+    <rPh sb="0" eb="5">
+      <t>ビョウドウシュギシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一族</t>
+    <rPh sb="0" eb="2">
+      <t>イチゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地所</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航空学</t>
+    <rPh sb="0" eb="3">
+      <t>コウクウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地熱の</t>
+    <rPh sb="0" eb="2">
+      <t>チネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸入する</t>
+    <rPh sb="0" eb="2">
+      <t>キュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を絶縁する</t>
+    <rPh sb="2" eb="4">
+      <t>ゼツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊牧民</t>
+    <rPh sb="0" eb="3">
+      <t>ユウボクミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独裁者</t>
+    <rPh sb="0" eb="3">
+      <t>ドクサイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精巧な</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>semantics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appraise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orchestrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味論</t>
+    <rPh sb="0" eb="3">
+      <t>イミロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摂政</t>
+    <rPh sb="0" eb="2">
+      <t>セッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を査定する</t>
+    <rPh sb="2" eb="4">
+      <t>サテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織する</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -835,6 +1718,614 @@
         <v>47</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747448F2-5982-49A3-A87C-F854BD1F62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A518A2C9-ED73-428C-83F9-48A92ACB919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="397">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -1188,6 +1188,1200 @@
     <t>組織する</t>
     <rPh sb="0" eb="2">
       <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meteorology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agronomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cognizant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logitics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liaison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conceited</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eminent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feudal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forefather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illustrious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気象学</t>
+    <rPh sb="0" eb="3">
+      <t>キショウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農学</t>
+    <rPh sb="0" eb="2">
+      <t>ノウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不法行為</t>
+    <rPh sb="0" eb="4">
+      <t>フホウコウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認識している</t>
+    <rPh sb="0" eb="2">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物流;兵站</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（組織同士の）連絡</t>
+    <rPh sb="1" eb="5">
+      <t>ソシキドウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うぬぼれた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著名な</t>
+    <rPh sb="0" eb="2">
+      <t>チョメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>封建主義の</t>
+    <rPh sb="0" eb="4">
+      <t>ホウケンシュギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先祖</t>
+    <rPh sb="0" eb="2">
+      <t>センゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輝かしい</t>
+    <rPh sb="0" eb="1">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を慕わせる</t>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>folly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forebear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burglar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paralyze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>industrious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inescapable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soothe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anomaly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>induct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prognosis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propensity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reprimand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remmant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stewardship</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>synopsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vicariously</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condusive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を放り投げる</t>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚行</t>
+    <rPh sb="0" eb="2">
+      <t>グコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖先</t>
+    <rPh sb="0" eb="2">
+      <t>ソセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸くなる</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（夜間の）押し込み強盗犯</t>
+    <rPh sb="1" eb="3">
+      <t>ヤカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゴウトウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を麻痺させる</t>
+    <rPh sb="2" eb="4">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内側の</t>
+    <rPh sb="0" eb="2">
+      <t>ウチガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤勉な;よく働く</t>
+    <rPh sb="0" eb="2">
+      <t>キンベン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避けられない</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をなだめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異例</t>
+    <rPh sb="0" eb="2">
+      <t>イレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を任命する</t>
+    <rPh sb="2" eb="4">
+      <t>ニンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予言</t>
+    <rPh sb="0" eb="2">
+      <t>ヨゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾向</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を𠮟りつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残余物、遺物</t>
+    <rPh sb="0" eb="2">
+      <t>ザンヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を後悔する</t>
+    <rPh sb="2" eb="4">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（宗教上の）宗派</t>
+    <rPh sb="1" eb="4">
+      <t>シュウキョウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>チョゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をゆがめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理責務</t>
+    <rPh sb="0" eb="4">
+      <t>カンリセキム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらすじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のことのように</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貢献する</t>
+    <rPh sb="0" eb="2">
+      <t>コウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coronary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dissect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inception</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>podiatry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>porous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quarantine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cripple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>debris</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forfeit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impetus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>looming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>majestic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mileage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perjury</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冠動脈;心臓の</t>
+    <rPh sb="0" eb="3">
+      <t>カンドウミャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を解剖する</t>
+    <rPh sb="2" eb="4">
+      <t>カイボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創立</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耕す</t>
+    <rPh sb="0" eb="1">
+      <t>タガヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足病学</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多孔質の</t>
+    <rPh sb="0" eb="3">
+      <t>タコウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検疫（所）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンエキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を撤回する</t>
+    <rPh sb="2" eb="4">
+      <t>テッカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒々しい</t>
+    <rPh sb="0" eb="2">
+      <t>アラアラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を称賛する</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を奪う</t>
+    <rPh sb="2" eb="3">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専門職員</t>
+    <rPh sb="0" eb="4">
+      <t>センモンショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残骸</t>
+    <rPh sb="0" eb="2">
+      <t>ザンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果として起こる</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>功績</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を放棄する</t>
+    <rPh sb="2" eb="4">
+      <t>ホウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きっかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を摂取する</t>
+    <rPh sb="2" eb="4">
+      <t>セッシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迫りくる</t>
+    <rPh sb="0" eb="1">
+      <t>セマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壮大な</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行可能距離</t>
+    <rPh sb="0" eb="6">
+      <t>ソウコウカノウキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虚偽の申し立て</t>
+    <rPh sb="0" eb="2">
+      <t>キョギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refurbish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supposition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>truncate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typography</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coerce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>concede</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crisp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>immaterial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marshal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noteworthy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ramification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rapport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>referendum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>envelop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exquisite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vulgar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tentatively</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>traction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>troll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affinity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bluff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>botanical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ferment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foremost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vascular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fruitful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>噴煙</t>
+    <rPh sb="0" eb="2">
+      <t>フンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を分配する</t>
+    <rPh sb="2" eb="4">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を一新する</t>
+    <rPh sb="2" eb="4">
+      <t>イッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（関係など）を絶つ</t>
+    <rPh sb="1" eb="3">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳しい</t>
+    <rPh sb="0" eb="1">
+      <t>キビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推測</t>
+    <rPh sb="0" eb="2">
+      <t>スイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り捨て</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷体裁</t>
+    <rPh sb="0" eb="4">
+      <t>インサツテイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（人）に強要する</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を認める</t>
+    <rPh sb="2" eb="3">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（話などが）明快な</t>
+    <rPh sb="1" eb="2">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要ではない;実体のない</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（考え方など）を整理する</t>
+    <rPh sb="1" eb="2">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段;切れ目</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注目に値する</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光合成</t>
+    <rPh sb="0" eb="3">
+      <t>コウゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（～に）通じた</t>
+    <rPh sb="4" eb="5">
+      <t>ツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（調和した）関係</t>
+    <rPh sb="1" eb="3">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住民投票</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウミントウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を包む</t>
+    <rPh sb="2" eb="3">
+      <t>ツツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強い恐怖</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品がない</t>
+    <rPh sb="0" eb="1">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うんざりしている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暫定的に</t>
+    <rPh sb="0" eb="3">
+      <t>ザンテイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り込み</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を刺す</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を突っ込む、置く;～を突く</t>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けん引（力）;摩擦</t>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を流し釣りをする;（情報）を探す</t>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親しみ、親近感</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シンキンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（人）にはったりをかける</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物（学）の</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を発酵させる</t>
+    <rPh sb="2" eb="4">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真っ先に</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血管の</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実りがある、有益な</t>
+    <rPh sb="0" eb="1">
+      <t>ミノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木立;林</t>
+    <rPh sb="0" eb="2">
+      <t>コダチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1514,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2326,6 +3520,806 @@
         <v>198</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>281</v>
+      </c>
+      <c r="B147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>283</v>
+      </c>
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>284</v>
+      </c>
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>285</v>
+      </c>
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>325</v>
+      </c>
+      <c r="B168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>326</v>
+      </c>
+      <c r="B169" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>327</v>
+      </c>
+      <c r="B170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>328</v>
+      </c>
+      <c r="B171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>330</v>
+      </c>
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>332</v>
+      </c>
+      <c r="B175" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>333</v>
+      </c>
+      <c r="B176" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>335</v>
+      </c>
+      <c r="B178" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>336</v>
+      </c>
+      <c r="B179" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>339</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>340</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>341</v>
+      </c>
+      <c r="B184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>342</v>
+      </c>
+      <c r="B185" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>343</v>
+      </c>
+      <c r="B186" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>344</v>
+      </c>
+      <c r="B187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>345</v>
+      </c>
+      <c r="B188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>346</v>
+      </c>
+      <c r="B189" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>348</v>
+      </c>
+      <c r="B191" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>350</v>
+      </c>
+      <c r="B193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>352</v>
+      </c>
+      <c r="B195" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>353</v>
+      </c>
+      <c r="B196" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>354</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>355</v>
+      </c>
+      <c r="B198" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>356</v>
+      </c>
+      <c r="B199" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A518A2C9-ED73-428C-83F9-48A92ACB919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4131D2C-E2FE-48EF-AF93-6613513A7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>cardiovascular</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>palgiarism</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2187,13 +2183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>効果</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（調和した）関係</t>
     <rPh sb="1" eb="3">
       <t>チョウワ</t>
@@ -2382,6 +2371,1225 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impending</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plagiarism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響、（派生的）結果</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハセイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>palatable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stickler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flabby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incontrovertible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shrewd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dreary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frigid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handicraft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recompense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decoy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oxidize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seabed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tenfold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unearth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outspoken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beachhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ennui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indecent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>punctuality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fawn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>superimpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mutiny</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crusade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>depose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>procession</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantitative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smuggle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>versatility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wrestle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acquit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>benevolence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>celestial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coroner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elapse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extracurricular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hedge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>herald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laureate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microorganism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amnesty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assorted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bottleneck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caliph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carbohydrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daunting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destabilize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>divergent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exalted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jeopardy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liquidate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pendulum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>precept</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downturn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hamlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hypertension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infiltrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>landslide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overturn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>particulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pessimist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plunge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suffrage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transcend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>czar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wilt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anagram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bestow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commemorate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zealous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切迫した</t>
+    <rPh sb="0" eb="2">
+      <t>セッパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（感情など）を教え込む</t>
+    <rPh sb="1" eb="3">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口に合う</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こだわる人</t>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（太って）しまりのない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明白な</t>
+    <rPh sb="0" eb="2">
+      <t>メイハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を楽しむ</t>
+    <rPh sb="2" eb="3">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い返し</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞察力のある</t>
+    <rPh sb="0" eb="3">
+      <t>ドウサツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急の、恐ろしい</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰鬱な</t>
+    <rPh sb="0" eb="2">
+      <t>インウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極寒の</t>
+    <rPh sb="0" eb="2">
+      <t>ゴッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手工芸</t>
+    <rPh sb="0" eb="3">
+      <t>テコウゲイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大群</t>
+    <rPh sb="0" eb="2">
+      <t>タイグン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を駆り立てる</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太った</t>
+    <rPh sb="0" eb="1">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を弁償する</t>
+    <rPh sb="2" eb="4">
+      <t>ベンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を気絶させる</t>
+    <rPh sb="2" eb="4">
+      <t>キゼツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加する</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10倍の</t>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を発掘する</t>
+    <rPh sb="2" eb="4">
+      <t>ハックツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>率直な</t>
+    <rPh sb="0" eb="2">
+      <t>ソッチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退屈</t>
+    <rPh sb="0" eb="2">
+      <t>タイクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足がかり;上陸拠点</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ジョウリクキョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下品な</t>
+    <rPh sb="0" eb="2">
+      <t>ゲヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間厳守</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンゲンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こびへつらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸っぱい</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を重ね合わせる</t>
+    <rPh sb="2" eb="3">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反乱</t>
+    <rPh sb="0" eb="2">
+      <t>ハンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改革運動</t>
+    <rPh sb="0" eb="4">
+      <t>カイカクウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を退位させる;～を証言する</t>
+    <rPh sb="2" eb="4">
+      <t>タイイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行進</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ススム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量的な</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を密輸する</t>
+    <rPh sb="2" eb="4">
+      <t>ミツユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多様な能力;汎用性</t>
+    <rPh sb="0" eb="2">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦う</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を釈放（放免）する</t>
+    <rPh sb="2" eb="4">
+      <t>シャクホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博愛</t>
+    <rPh sb="0" eb="2">
+      <t>ハクアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天体の</t>
+    <rPh sb="0" eb="2">
+      <t>テンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検死官</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（時が）経過する</t>
+    <rPh sb="1" eb="2">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を見習う</t>
+    <rPh sb="2" eb="4">
+      <t>ミナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育課程外の</t>
+    <rPh sb="0" eb="5">
+      <t>キョウイクカテイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種子</t>
+    <rPh sb="0" eb="2">
+      <t>シュシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生垣;境界線;（金銭的損失からの）防衛線</t>
+    <rPh sb="0" eb="2">
+      <t>イケガキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キョウカイセン</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>キンセンテキソンシツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ボウエイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～の先駆けをする;前兆（前触れ）</t>
+    <rPh sb="2" eb="4">
+      <t>サキガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マエブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受賞者</t>
+    <rPh sb="0" eb="3">
+      <t>ジュショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微生物</t>
+    <rPh sb="0" eb="3">
+      <t>ビセイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遺物、遺品</t>
+    <rPh sb="0" eb="2">
+      <t>イブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通気孔</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恩赦</t>
+    <rPh sb="0" eb="2">
+      <t>オンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な種類の混ざった;分類された</t>
+    <rPh sb="0" eb="7">
+      <t>サマザマナシュルイノマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトルネック;障害</t>
+    <rPh sb="7" eb="9">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カリフ（ムハンマドの継承者）</t>
+    <rPh sb="10" eb="13">
+      <t>ケイショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭水化物</t>
+    <rPh sb="0" eb="4">
+      <t>タンスイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじけづかせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（国家・経済など）を動揺させる</t>
+    <rPh sb="1" eb="3">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を防止（抑制）する</t>
+    <rPh sb="2" eb="4">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異なる</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価の高い</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険</t>
+    <rPh sb="0" eb="2">
+      <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を一掃する;会社が破産する</t>
+    <rPh sb="2" eb="4">
+      <t>イッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（音楽の）作品;作品番号（op.)</t>
+    <rPh sb="1" eb="3">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>サクヒンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り子</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教訓</t>
+    <rPh sb="0" eb="2">
+      <t>キョウクン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を是正する、正す</t>
+    <rPh sb="2" eb="4">
+      <t>ゼセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱線する、それる</t>
+    <rPh sb="0" eb="2">
+      <t>ダッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振れる</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を生じさせる</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（病気・物価などの）低迷</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日食、月食;（権力などの）失墜</t>
+    <rPh sb="0" eb="2">
+      <t>ニッショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲッショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集落</t>
+    <rPh sb="0" eb="2">
+      <t>シュウラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤る</t>
+    <rPh sb="0" eb="1">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を貯蔵する</t>
+    <rPh sb="2" eb="4">
+      <t>チョゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高血圧</t>
+    <rPh sb="0" eb="3">
+      <t>コウケツアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に潜入する</t>
+    <rPh sb="2" eb="4">
+      <t>センニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島</t>
+    <rPh sb="0" eb="1">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を覆す</t>
+    <rPh sb="2" eb="3">
+      <t>クツガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土砂崩れ;地滑り的大勝利</t>
+    <rPh sb="0" eb="3">
+      <t>ドシャクズ</t>
+    </rPh>
+    <rPh sb="5" eb="12">
+      <t>チスベリテキダイショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微粒子</t>
+    <rPh sb="0" eb="3">
+      <t>ビリュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悲観主義者</t>
+    <rPh sb="0" eb="5">
+      <t>ヒカンシュギシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い切り</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっくり考える;毛穴</t>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケアナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を受ける</t>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠遁、隔離</t>
+    <rPh sb="0" eb="2">
+      <t>イントン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩み</t>
+    <rPh sb="0" eb="1">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参政権</t>
+    <rPh sb="0" eb="3">
+      <t>サンセイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を乗り越える</t>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しおれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナグラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を与える</t>
+    <rPh sb="2" eb="3">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目立つ</t>
+    <rPh sb="0" eb="2">
+      <t>メダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を追悼する</t>
+    <rPh sb="2" eb="4">
+      <t>ツイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱狂的な</t>
+    <rPh sb="0" eb="3">
+      <t>ネッキョウテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2708,16 +3916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="33.09765625" customWidth="1"/>
+    <col min="2" max="2" width="35.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -2725,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -2733,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -2741,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -2749,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -2757,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -2765,1559 +3973,2359 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B164" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B184" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B187" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B192" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B193" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>401</v>
+      </c>
+      <c r="B205" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>402</v>
+      </c>
+      <c r="B206" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>405</v>
+      </c>
+      <c r="B209" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>406</v>
+      </c>
+      <c r="B210" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>407</v>
+      </c>
+      <c r="B211" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>408</v>
+      </c>
+      <c r="B212" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>410</v>
+      </c>
+      <c r="B214" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>411</v>
+      </c>
+      <c r="B215" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>412</v>
+      </c>
+      <c r="B216" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>414</v>
+      </c>
+      <c r="B218" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>415</v>
+      </c>
+      <c r="B219" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>416</v>
+      </c>
+      <c r="B220" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>418</v>
+      </c>
+      <c r="B222" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>420</v>
+      </c>
+      <c r="B224" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>421</v>
+      </c>
+      <c r="B225" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>422</v>
+      </c>
+      <c r="B226" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>423</v>
+      </c>
+      <c r="B227" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>424</v>
+      </c>
+      <c r="B228" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>425</v>
+      </c>
+      <c r="B229" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>426</v>
+      </c>
+      <c r="B230" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>427</v>
+      </c>
+      <c r="B231" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>428</v>
+      </c>
+      <c r="B232" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>429</v>
+      </c>
+      <c r="B233" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>430</v>
+      </c>
+      <c r="B234" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>431</v>
+      </c>
+      <c r="B235" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>432</v>
+      </c>
+      <c r="B236" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>433</v>
+      </c>
+      <c r="B237" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>434</v>
+      </c>
+      <c r="B238" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>435</v>
+      </c>
+      <c r="B239" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>436</v>
+      </c>
+      <c r="B240" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>437</v>
+      </c>
+      <c r="B241" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>438</v>
+      </c>
+      <c r="B242" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>439</v>
+      </c>
+      <c r="B243" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>440</v>
+      </c>
+      <c r="B244" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>441</v>
+      </c>
+      <c r="B245" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>442</v>
+      </c>
+      <c r="B246" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>443</v>
+      </c>
+      <c r="B247" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>444</v>
+      </c>
+      <c r="B248" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>445</v>
+      </c>
+      <c r="B249" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>446</v>
+      </c>
+      <c r="B250" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>447</v>
+      </c>
+      <c r="B251" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>448</v>
+      </c>
+      <c r="B252" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>449</v>
+      </c>
+      <c r="B253" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>450</v>
+      </c>
+      <c r="B254" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>451</v>
+      </c>
+      <c r="B255" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>452</v>
+      </c>
+      <c r="B256" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>453</v>
+      </c>
+      <c r="B257" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>454</v>
+      </c>
+      <c r="B258" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>455</v>
+      </c>
+      <c r="B259" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>456</v>
+      </c>
+      <c r="B260" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>457</v>
+      </c>
+      <c r="B261" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>458</v>
+      </c>
+      <c r="B262" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>459</v>
+      </c>
+      <c r="B263" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>460</v>
+      </c>
+      <c r="B264" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>461</v>
+      </c>
+      <c r="B265" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>462</v>
+      </c>
+      <c r="B266" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>463</v>
+      </c>
+      <c r="B267" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>464</v>
+      </c>
+      <c r="B268" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>465</v>
+      </c>
+      <c r="B269" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>466</v>
+      </c>
+      <c r="B270" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>467</v>
+      </c>
+      <c r="B271" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>468</v>
+      </c>
+      <c r="B272" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>469</v>
+      </c>
+      <c r="B273" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>470</v>
+      </c>
+      <c r="B274" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>471</v>
+      </c>
+      <c r="B275" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>472</v>
+      </c>
+      <c r="B276" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>473</v>
+      </c>
+      <c r="B277" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>474</v>
+      </c>
+      <c r="B278" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>475</v>
+      </c>
+      <c r="B279" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>476</v>
+      </c>
+      <c r="B280" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>477</v>
+      </c>
+      <c r="B281" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>478</v>
+      </c>
+      <c r="B282" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>480</v>
+      </c>
+      <c r="B284" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>481</v>
+      </c>
+      <c r="B285" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>482</v>
+      </c>
+      <c r="B286" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>483</v>
+      </c>
+      <c r="B287" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>484</v>
+      </c>
+      <c r="B288" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>485</v>
+      </c>
+      <c r="B289" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>486</v>
+      </c>
+      <c r="B290" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>487</v>
+      </c>
+      <c r="B291" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>488</v>
+      </c>
+      <c r="B292" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>489</v>
+      </c>
+      <c r="B293" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>490</v>
+      </c>
+      <c r="B294" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>491</v>
+      </c>
+      <c r="B295" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>492</v>
+      </c>
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>493</v>
+      </c>
+      <c r="B297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>494</v>
+      </c>
+      <c r="B298" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>495</v>
+      </c>
+      <c r="B299" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>496</v>
+      </c>
+      <c r="B300" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4131D2C-E2FE-48EF-AF93-6613513A7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EC6DD-48C9-40B6-BCD5-9DE7A4792C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="794">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -1822,13 +1822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>～を放棄する</t>
-    <rPh sb="2" eb="4">
-      <t>ホウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>きっかけ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3590,6 +3583,1293 @@
     <t>熱狂的な</t>
     <rPh sb="0" eb="3">
       <t>ネッキョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indestructible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instinctive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deplore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conscription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epiphany</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erratic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inflammination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nausea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overrule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insatiable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retrace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>antipathy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biped</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cliché</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ruthless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sneer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiethnic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cardiac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flutter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paternal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dictator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indignant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>midterm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>superstition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pretext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shelve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thaw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>torrent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ardent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>woo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morbid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vouch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disburse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ellipsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playwright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>predominant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subvert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>willful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chuck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>concur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enslave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erroneous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>franchise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obestetrics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pirate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>precinct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quarry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stride</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vengeance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constrict</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>granular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>halo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hexagonal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intangible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inverse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mercenary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prudent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seminal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actuarial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atrocious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cede</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れない</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本能的な</t>
+    <rPh sb="0" eb="3">
+      <t>ホンノウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新米</t>
+    <rPh sb="0" eb="2">
+      <t>シンマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を嘆き悲しむ</t>
+    <rPh sb="2" eb="3">
+      <t>ナゲ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徴兵</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を剥奪される</t>
+    <rPh sb="2" eb="3">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直感的な悟り</t>
+    <rPh sb="0" eb="3">
+      <t>チョッカンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不安定な</t>
+    <rPh sb="0" eb="3">
+      <t>フアンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探し回る</t>
+    <rPh sb="0" eb="1">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中でとどまる</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎症</t>
+    <rPh sb="0" eb="2">
+      <t>エンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議論の余地がある</t>
+    <rPh sb="0" eb="2">
+      <t>ギロン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吐き気</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～の発言を封じる</t>
+    <rPh sb="2" eb="4">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <rPh sb="0" eb="2">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貪欲な</t>
+    <rPh sb="0" eb="2">
+      <t>ドンヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き返す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌悪感</t>
+    <rPh sb="0" eb="3">
+      <t>ケンオカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二足歩行動物</t>
+    <rPh sb="0" eb="6">
+      <t>ニソクホコウドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳腐な;使い古された表現</t>
+    <rPh sb="0" eb="2">
+      <t>チンプ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷酷な</t>
+    <rPh sb="0" eb="2">
+      <t>レイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あざ笑う</t>
+    <rPh sb="2" eb="3">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通人気どり;学問や知識を鼻にかける人</t>
+    <rPh sb="0" eb="3">
+      <t>ツウニンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多民族的な</t>
+    <rPh sb="0" eb="4">
+      <t>タミンゾクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓の</t>
+    <rPh sb="0" eb="2">
+      <t>シンゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はためく;ひらひら飛ぶ</t>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰供給</t>
+    <rPh sb="0" eb="4">
+      <t>カジョウキョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姿勢;～のふりをする</t>
+    <rPh sb="0" eb="2">
+      <t>シセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うぬぼれが強い;無益な</t>
+    <rPh sb="5" eb="6">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>父方の</t>
+    <rPh sb="0" eb="2">
+      <t>チチカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通勤[通学]する;～を減刑する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を保留にする</t>
+    <rPh sb="2" eb="4">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腹を立てた</t>
+    <rPh sb="0" eb="1">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間試験;中間</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷信</t>
+    <rPh sb="0" eb="2">
+      <t>メイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口実</t>
+    <rPh sb="0" eb="2">
+      <t>コウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（計画などを）棚上げする;解雇する</t>
+    <rPh sb="1" eb="3">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タナア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（雪が）解ける</t>
+    <rPh sb="1" eb="2">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほのかな色</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急流</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苦労して歩く</t>
+    <rPh sb="0" eb="2">
+      <t>クロウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（体の一部を[が]）振る、揺れる</t>
+    <rPh sb="1" eb="2">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱心な</t>
+    <rPh sb="0" eb="2">
+      <t>ネッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に求愛する</t>
+    <rPh sb="2" eb="4">
+      <t>キュウアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬虔な;信仰深い</t>
+    <rPh sb="0" eb="2">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐ろしい;病的な</t>
+    <rPh sb="0" eb="1">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保証する</t>
+    <rPh sb="0" eb="2">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略記号(…など)</t>
+    <rPh sb="0" eb="4">
+      <t>ショウリャクキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を釘で止める</t>
+    <rPh sb="2" eb="3">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚本家</t>
+    <rPh sb="0" eb="3">
+      <t>キャクホンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主な;圧倒的な</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アットウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をつまむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意図的な、恋の</t>
+    <rPh sb="0" eb="3">
+      <t>イトテキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騎兵隊</t>
+    <rPh sb="0" eb="3">
+      <t>キヘイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を捨てる</t>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同意する;同時に起こる</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隷属化する</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（思想などが）誤った</t>
+    <rPh sb="1" eb="3">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランチャイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（情報など）を伝える</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由、許容度;緯度</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キョヨウド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産科（学）</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海賊;～の著作権を侵害する</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票区</t>
+    <rPh sb="0" eb="3">
+      <t>トウヒョウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲物</t>
+    <rPh sb="0" eb="2">
+      <t>エモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を再集計する</t>
+    <rPh sb="2" eb="5">
+      <t>サイシュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（大股の）歩幅</t>
+    <rPh sb="1" eb="3">
+      <t>オオマタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を妨げる</t>
+    <rPh sb="2" eb="3">
+      <t>サマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粒（状）の</t>
+    <rPh sb="0" eb="1">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（聖人像などの）光輪;ハロー（現象）</t>
+    <rPh sb="1" eb="4">
+      <t>セイジンゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウリン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>六角形の</t>
+    <rPh sb="0" eb="3">
+      <t>ロッカッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無形の;不可解な;つかみどころのない</t>
+    <rPh sb="0" eb="2">
+      <t>ムケイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>フカカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆数;逆の</t>
+    <rPh sb="0" eb="2">
+      <t>ギャクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貪欲な;傭兵</t>
+    <rPh sb="0" eb="2">
+      <t>ドンヨク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ロケット）の観測機器類;有料荷重</t>
+    <rPh sb="7" eb="12">
+      <t>カンソクキキルイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ユウリョウカジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用心深い;倹約な</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウジンブカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来性のある</t>
+    <rPh sb="0" eb="3">
+      <t>ショウライセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有神論</t>
+    <rPh sb="0" eb="3">
+      <t>ユウシンロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険数理（士）の</t>
+    <rPh sb="0" eb="4">
+      <t>ホケンスウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひどい、不愉快な;残虐な</t>
+    <rPh sb="4" eb="7">
+      <t>フユカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザンギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（権利を）譲渡する</t>
+    <rPh sb="1" eb="3">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>duress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filtrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fructose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ironclad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>placenta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rebound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repercussion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repertoire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tectonic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>turf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alluvial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅迫;監禁</t>
+    <rPh sb="0" eb="2">
+      <t>キョウハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（器官など）を摘出する</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確執、不和;反目する、争う</t>
+    <rPh sb="0" eb="2">
+      <t>カクシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をろ過する</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>果糖</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳格な;変更の効かない、鉄壁の</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テッペキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（動物の）胎盤</t>
+    <rPh sb="1" eb="3">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち直る;跳ね返る;反動</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余波</t>
+    <rPh sb="0" eb="2">
+      <t>ヨハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レパートリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（機会・勝利などを）つかむ;～を強奪する</t>
+    <rPh sb="1" eb="3">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウダツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造的な</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縄張り</t>
+    <rPh sb="0" eb="2">
+      <t>ナワバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪化させる</t>
+    <rPh sb="0" eb="2">
+      <t>アッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖積物の</t>
+    <rPh sb="0" eb="2">
+      <t>チュウセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カースト;身分制</t>
+    <rPh sb="5" eb="8">
+      <t>ミブンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3916,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3978,7 +5258,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5157,7 +6437,7 @@
         <v>287</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -5165,7 +6445,7 @@
         <v>288</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -5173,7 +6453,7 @@
         <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -5181,7 +6461,7 @@
         <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -5189,7 +6469,7 @@
         <v>291</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -5197,7 +6477,7 @@
         <v>292</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -5205,188 +6485,188 @@
         <v>293</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B171" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B173" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B178" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B183" t="s">
         <v>189</v>
@@ -5394,938 +6674,1738 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B191" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B201" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B203" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B204" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B205" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B206" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B207" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B208" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B210" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B211" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B212" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B213" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B214" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B215" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B216" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B217" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B219" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B220" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B221" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B222" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B223" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B224" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B225" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B226" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B227" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B228" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B229" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B230" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B231" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B232" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B233" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B234" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B235" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B236" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B237" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B238" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B239" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B240" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B241" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B242" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B243" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B244" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B245" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B246" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B247" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B248" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B249" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B250" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B251" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B252" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B254" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B255" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B256" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B257" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B258" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B259" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B260" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B261" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B262" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B263" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B264" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B265" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B266" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B267" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B269" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B270" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B271" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B272" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B273" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B274" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B275" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B276" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B277" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B278" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B279" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B280" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B281" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B282" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B283" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B284" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B285" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B286" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B287" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B288" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B289" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B290" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B291" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B292" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B293" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B294" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B295" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B296" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B297" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B298" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B299" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B300" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
         <v>596</v>
+      </c>
+      <c r="B301" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>597</v>
+      </c>
+      <c r="B302" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>600</v>
+      </c>
+      <c r="B305" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>601</v>
+      </c>
+      <c r="B306" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>602</v>
+      </c>
+      <c r="B307" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>603</v>
+      </c>
+      <c r="B308" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>604</v>
+      </c>
+      <c r="B309" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>605</v>
+      </c>
+      <c r="B310" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>606</v>
+      </c>
+      <c r="B311" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>607</v>
+      </c>
+      <c r="B312" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>608</v>
+      </c>
+      <c r="B313" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>609</v>
+      </c>
+      <c r="B314" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>610</v>
+      </c>
+      <c r="B315" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>611</v>
+      </c>
+      <c r="B316" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>612</v>
+      </c>
+      <c r="B317" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>613</v>
+      </c>
+      <c r="B318" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>614</v>
+      </c>
+      <c r="B319" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>615</v>
+      </c>
+      <c r="B320" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>616</v>
+      </c>
+      <c r="B321" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>617</v>
+      </c>
+      <c r="B322" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>618</v>
+      </c>
+      <c r="B323" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>619</v>
+      </c>
+      <c r="B324" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>620</v>
+      </c>
+      <c r="B325" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>621</v>
+      </c>
+      <c r="B326" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>622</v>
+      </c>
+      <c r="B327" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>623</v>
+      </c>
+      <c r="B328" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>625</v>
+      </c>
+      <c r="B329" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>624</v>
+      </c>
+      <c r="B330" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>626</v>
+      </c>
+      <c r="B331" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>627</v>
+      </c>
+      <c r="B332" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>628</v>
+      </c>
+      <c r="B333" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>629</v>
+      </c>
+      <c r="B334" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>630</v>
+      </c>
+      <c r="B335" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>631</v>
+      </c>
+      <c r="B336" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>632</v>
+      </c>
+      <c r="B337" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>633</v>
+      </c>
+      <c r="B338" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>634</v>
+      </c>
+      <c r="B339" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>635</v>
+      </c>
+      <c r="B340" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
+        <v>636</v>
+      </c>
+      <c r="B341" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
+        <v>637</v>
+      </c>
+      <c r="B342" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
+        <v>638</v>
+      </c>
+      <c r="B343" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>639</v>
+      </c>
+      <c r="B344" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>640</v>
+      </c>
+      <c r="B345" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>641</v>
+      </c>
+      <c r="B346" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>642</v>
+      </c>
+      <c r="B347" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>643</v>
+      </c>
+      <c r="B348" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>644</v>
+      </c>
+      <c r="B349" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>645</v>
+      </c>
+      <c r="B350" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>646</v>
+      </c>
+      <c r="B351" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>647</v>
+      </c>
+      <c r="B352" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>648</v>
+      </c>
+      <c r="B353" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>649</v>
+      </c>
+      <c r="B354" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>650</v>
+      </c>
+      <c r="B355" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>651</v>
+      </c>
+      <c r="B356" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>652</v>
+      </c>
+      <c r="B357" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>653</v>
+      </c>
+      <c r="B358" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>654</v>
+      </c>
+      <c r="B359" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>655</v>
+      </c>
+      <c r="B360" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>656</v>
+      </c>
+      <c r="B361" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>657</v>
+      </c>
+      <c r="B362" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>658</v>
+      </c>
+      <c r="B363" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>659</v>
+      </c>
+      <c r="B364" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>660</v>
+      </c>
+      <c r="B365" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>661</v>
+      </c>
+      <c r="B366" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>662</v>
+      </c>
+      <c r="B367" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>663</v>
+      </c>
+      <c r="B368" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>664</v>
+      </c>
+      <c r="B369" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>665</v>
+      </c>
+      <c r="B370" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>666</v>
+      </c>
+      <c r="B371" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>667</v>
+      </c>
+      <c r="B372" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>668</v>
+      </c>
+      <c r="B373" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>669</v>
+      </c>
+      <c r="B374" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>670</v>
+      </c>
+      <c r="B375" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>671</v>
+      </c>
+      <c r="B376" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>672</v>
+      </c>
+      <c r="B377" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>673</v>
+      </c>
+      <c r="B378" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>674</v>
+      </c>
+      <c r="B379" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>675</v>
+      </c>
+      <c r="B380" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>676</v>
+      </c>
+      <c r="B381" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>677</v>
+      </c>
+      <c r="B382" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>678</v>
+      </c>
+      <c r="B383" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>679</v>
+      </c>
+      <c r="B384" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>762</v>
+      </c>
+      <c r="B385" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>763</v>
+      </c>
+      <c r="B386" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>764</v>
+      </c>
+      <c r="B387" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" t="s">
+        <v>765</v>
+      </c>
+      <c r="B388" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" t="s">
+        <v>766</v>
+      </c>
+      <c r="B389" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" t="s">
+        <v>767</v>
+      </c>
+      <c r="B390" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>768</v>
+      </c>
+      <c r="B391" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392" t="s">
+        <v>769</v>
+      </c>
+      <c r="B392" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" t="s">
+        <v>770</v>
+      </c>
+      <c r="B393" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" t="s">
+        <v>771</v>
+      </c>
+      <c r="B394" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>772</v>
+      </c>
+      <c r="B395" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396" t="s">
+        <v>773</v>
+      </c>
+      <c r="B396" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" t="s">
+        <v>774</v>
+      </c>
+      <c r="B397" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
+        <v>775</v>
+      </c>
+      <c r="B398" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>776</v>
+      </c>
+      <c r="B399" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" t="s">
+        <v>777</v>
+      </c>
+      <c r="B400" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EC6DD-48C9-40B6-BCD5-9DE7A4792C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739752B5-7629-480E-BC0C-86CF6D4A0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="993">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -4737,22 +4737,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確執、不和;反目する、争う</t>
-    <rPh sb="0" eb="2">
-      <t>カクシツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンモク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アラソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～をろ過する</t>
     <rPh sb="3" eb="4">
       <t>カ</t>
@@ -4793,25 +4777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>立ち直る;跳ね返る;反動</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>余波</t>
     <rPh sb="0" eb="2">
       <t>ヨハ</t>
@@ -4820,19 +4785,6 @@
   </si>
   <si>
     <t>レパートリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（機会・勝利などを）つかむ;～を強奪する</t>
-    <rPh sb="1" eb="3">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゴウダツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4867,9 +4819,1510 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カースト;身分制</t>
+    <t>conjure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disparagingly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infallible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infantry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insurrection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>markedly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multilateral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mythology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dispel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empathy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entrust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imbed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insubordination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nuance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remodel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rig</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shepherd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>respite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misdemeanor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tangible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thorn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zinc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incremental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pediatric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tangential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>felony</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>metaphysical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reflex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cordial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vigor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periphery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culminate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pivotal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fallacy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stipulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>traverse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>annals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heuristic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outlier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shortcoming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>undercut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abreast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clique</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dichotomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dissonant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enrage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frivolous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unilateral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>funnel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incongruous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infraction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intricate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lucrative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>malfunction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unorthodox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rescind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strapped</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amorphous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>audacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>centennial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emanate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>escort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etiquette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gestalt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>immutable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingenuity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insurgent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mollify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protagonist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rudimentary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（呪文で霊などを）呼び出す</t>
+    <rPh sb="1" eb="3">
+      <t>ジュモン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽蔑しながら</t>
+    <rPh sb="0" eb="2">
+      <t>ケイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対確実な</t>
+    <rPh sb="0" eb="4">
+      <t>ゼッタイカクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩兵（隊）</t>
+    <rPh sb="0" eb="2">
+      <t>ホヘイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴動、反乱</t>
+    <rPh sb="0" eb="2">
+      <t>ボウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潜伏性の</t>
+    <rPh sb="0" eb="3">
+      <t>センプクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著しく</t>
+    <rPh sb="0" eb="1">
+      <t>イチジル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多国間の</t>
+    <rPh sb="0" eb="3">
+      <t>タコクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神話;神話学</t>
+    <rPh sb="0" eb="2">
+      <t>シンワ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンワガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（不安や迷いなど）を払いのける</t>
+    <rPh sb="1" eb="3">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共感</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を委ねる</t>
+    <rPh sb="2" eb="3">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を埋め込む</t>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不服従</t>
+    <rPh sb="0" eb="3">
+      <t>フフクジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュアンス、（色・意味などの）微妙な違い</t>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ビミョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（建物を）改装する</t>
+    <rPh sb="1" eb="3">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資質、実績</t>
+    <rPh sb="0" eb="2">
+      <t>シシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（草木の）とげ、はり</t>
+    <rPh sb="1" eb="3">
+      <t>クサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜鉛</t>
+    <rPh sb="0" eb="2">
+      <t>アエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮釈放</t>
+    <rPh sb="0" eb="3">
+      <t>カリシャクホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を細かく刻む</t>
+    <rPh sb="2" eb="3">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徐々に起こる、定期的に増加する</t>
+    <rPh sb="0" eb="4">
+      <t>ジョジョニオ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小児科の</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接した、接線の</t>
+    <rPh sb="0" eb="1">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重罪</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽犯罪；非行</t>
+    <rPh sb="0" eb="3">
+      <t>ケイハンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拘留、（罰としての）放課後の居残り</t>
+    <rPh sb="0" eb="2">
+      <t>コウリュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ホウカゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反射、反射神経</t>
+    <rPh sb="0" eb="2">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ハンシャシンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を進ませる</t>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（時間・仕事）を割く、割り当てる</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢明な；賢者</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活力；力強さ；拘束力</t>
+    <rPh sb="0" eb="2">
+      <t>カツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チカラヅヨ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウソクリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誠心誠意の；友好的な</t>
+    <rPh sb="0" eb="4">
+      <t>セイシンセイイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウコウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推論に基づいた；形而上学の</t>
+    <rPh sb="0" eb="2">
+      <t>スイロン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケイジジョウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的な；確実な；有形の</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（仕事などの）小休止；延期</t>
+    <rPh sb="1" eb="3">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウキュウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（群衆を）導く；羊飼い</t>
+    <rPh sb="1" eb="3">
+      <t>グンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を装備す；～を人為的[不正]に操作する</t>
+    <rPh sb="2" eb="4">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジンイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（金銭）をおくる；（刑罰など）を免除する</t>
+    <rPh sb="1" eb="3">
+      <t>キンセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイバツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（人）を苦しめる；棚；（建物などの）荒廃</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>醜悪な；不快な</t>
+    <rPh sb="0" eb="2">
+      <t>シュウアク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（をする）傾向がある；うつぶせの</t>
+    <rPh sb="5" eb="7">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カースト；身分制</t>
     <rPh sb="5" eb="8">
       <t>ミブンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（機会・勝利などを）つかむ；～を強奪する</t>
+    <rPh sb="1" eb="3">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウダツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち直る；跳ね返る；反動</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確執、不和；反目する、争う</t>
+    <rPh sb="0" eb="2">
+      <t>カクシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外側、周辺；表面</t>
+    <rPh sb="0" eb="2">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高潮に達する</t>
+    <rPh sb="0" eb="3">
+      <t>サイコウチョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極めて重要な</t>
+    <rPh sb="0" eb="1">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違った考え；詭弁</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を取り決める；明記する</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を越える、横切る</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨコギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自閉症</t>
+    <rPh sb="0" eb="3">
+      <t>ジヘイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史、記録；年代記</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ネンダイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を屈折させる</t>
+    <rPh sb="2" eb="4">
+      <t>クッセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試行錯誤的な</t>
+    <rPh sb="0" eb="5">
+      <t>シコウサクゴテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>域外の（島）、離島</t>
+    <rPh sb="0" eb="2">
+      <t>イキガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠点</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を損なう、弱める</t>
+    <rPh sb="2" eb="3">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一方的な；（契約などが）片務的な</t>
+    <rPh sb="0" eb="3">
+      <t>イッポウテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヘンムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（悪い状況での）良い面;上部</t>
+    <rPh sb="1" eb="2">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（時勢などに）遅れを取らずに；並走して</t>
+    <rPh sb="1" eb="3">
+      <t>ジセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派閥</t>
+    <rPh sb="0" eb="2">
+      <t>ハバツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川;（介入・反対など）を容認する</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（宗派の）教義；宗教；（一般的な）信条</t>
+    <rPh sb="1" eb="3">
+      <t>シュウハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を変形させる</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に歯止めをかける、～を抑える</t>
+    <rPh sb="2" eb="4">
+      <t>ハド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな相違、対立；半月</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不協和音の；調和しない</t>
+    <rPh sb="0" eb="4">
+      <t>フキョウワオン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を激怒させる</t>
+    <rPh sb="2" eb="4">
+      <t>ゲキド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまらない、取るに足らない</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（お金など）を注ぎ込む;じょうご</t>
+    <rPh sb="2" eb="3">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちぐはぐな、不調和な</t>
+    <rPh sb="6" eb="9">
+      <t>フチョウワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（法律などの）違反行為</t>
+    <rPh sb="1" eb="3">
+      <t>ホウリツ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イハンコウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑な；入り組んだ、もつれた</t>
+    <rPh sb="0" eb="2">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（傷口など）を切開する;槍</t>
+    <rPh sb="1" eb="3">
+      <t>キズグチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益の多い、儲かる</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（機械などの）不調</t>
+    <rPh sb="1" eb="3">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型破りな、正統派でない</t>
+    <rPh sb="0" eb="2">
+      <t>カタヤブ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイトウハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷静さ、落ち着き；バランス</t>
+    <rPh sb="0" eb="2">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（契約など）を取り消す、無効にする</t>
+    <rPh sb="1" eb="3">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚板、平板</t>
+    <rPh sb="0" eb="2">
+      <t>アツイタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒライタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（金などに）困っている</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定まっていない</t>
+    <rPh sb="0" eb="1">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>償う、罪滅ぼしをする</t>
+    <rPh sb="0" eb="1">
+      <t>ツグナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツミホロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>証明する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を禁止する</t>
+    <rPh sb="2" eb="4">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大胆さ；厚かましさ</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100周年の</t>
+    <rPh sb="3" eb="5">
+      <t>シュウネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（音・光・考えなどが）発する</t>
+    <rPh sb="1" eb="2">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同伴者</t>
+    <rPh sb="0" eb="3">
+      <t>ドウハンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごちそう；祝宴</t>
+    <rPh sb="5" eb="7">
+      <t>シュクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>典礼、礼式；礼儀</t>
+    <rPh sb="0" eb="2">
+      <t>テンレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レイシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲル；（複数の人が）仲良くやっていく</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナカヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲシュタルト、（形態）</t>
+    <rPh sb="8" eb="10">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～次第である；ちょうつがいでうごく</t>
+    <rPh sb="1" eb="3">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不変の、変えられない</t>
+    <rPh sb="0" eb="2">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創造性；工夫</t>
+    <rPh sb="0" eb="3">
+      <t>ソウゾウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反乱者、暴徒</t>
+    <rPh sb="0" eb="3">
+      <t>ハンランシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧草地</t>
+    <rPh sb="0" eb="3">
+      <t>ボクソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公；（活動などの）主導者</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュドウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的な；未発達の</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雄弁家；演説者</t>
+    <rPh sb="0" eb="3">
+      <t>ユウベンカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エンゼツシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5196,10 +6649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B400"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="E497" sqref="E497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8301,7 +9754,7 @@
         <v>764</v>
       </c>
       <c r="B387" t="s">
-        <v>780</v>
+        <v>935</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
@@ -8309,7 +9762,7 @@
         <v>765</v>
       </c>
       <c r="B388" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
@@ -8317,7 +9770,7 @@
         <v>766</v>
       </c>
       <c r="B389" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
@@ -8325,7 +9778,7 @@
         <v>767</v>
       </c>
       <c r="B390" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
@@ -8333,7 +9786,7 @@
         <v>768</v>
       </c>
       <c r="B391" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
@@ -8341,7 +9794,7 @@
         <v>769</v>
       </c>
       <c r="B392" t="s">
-        <v>785</v>
+        <v>934</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
@@ -8349,7 +9802,7 @@
         <v>770</v>
       </c>
       <c r="B393" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
@@ -8357,7 +9810,7 @@
         <v>771</v>
       </c>
       <c r="B394" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
@@ -8365,7 +9818,7 @@
         <v>772</v>
       </c>
       <c r="B395" t="s">
-        <v>788</v>
+        <v>933</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
@@ -8373,7 +9826,7 @@
         <v>773</v>
       </c>
       <c r="B396" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
@@ -8381,7 +9834,7 @@
         <v>774</v>
       </c>
       <c r="B397" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
@@ -8389,7 +9842,7 @@
         <v>775</v>
       </c>
       <c r="B398" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
@@ -8397,7 +9850,7 @@
         <v>776</v>
       </c>
       <c r="B399" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
@@ -8405,7 +9858,807 @@
         <v>777</v>
       </c>
       <c r="B400" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" t="s">
+        <v>790</v>
+      </c>
+      <c r="B401" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" t="s">
+        <v>791</v>
+      </c>
+      <c r="B402" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" t="s">
+        <v>792</v>
+      </c>
+      <c r="B403" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" t="s">
         <v>793</v>
+      </c>
+      <c r="B404" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" t="s">
+        <v>794</v>
+      </c>
+      <c r="B405" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" t="s">
+        <v>795</v>
+      </c>
+      <c r="B406" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" t="s">
+        <v>796</v>
+      </c>
+      <c r="B407" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" t="s">
+        <v>797</v>
+      </c>
+      <c r="B408" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" t="s">
+        <v>798</v>
+      </c>
+      <c r="B409" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" t="s">
+        <v>799</v>
+      </c>
+      <c r="B410" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" t="s">
+        <v>800</v>
+      </c>
+      <c r="B411" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" t="s">
+        <v>801</v>
+      </c>
+      <c r="B412" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" t="s">
+        <v>802</v>
+      </c>
+      <c r="B413" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" t="s">
+        <v>803</v>
+      </c>
+      <c r="B414" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" t="s">
+        <v>804</v>
+      </c>
+      <c r="B415" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" t="s">
+        <v>805</v>
+      </c>
+      <c r="B416" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" t="s">
+        <v>806</v>
+      </c>
+      <c r="B417" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" t="s">
+        <v>807</v>
+      </c>
+      <c r="B418" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" t="s">
+        <v>808</v>
+      </c>
+      <c r="B419" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420" t="s">
+        <v>809</v>
+      </c>
+      <c r="B420" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" t="s">
+        <v>810</v>
+      </c>
+      <c r="B421" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422" t="s">
+        <v>811</v>
+      </c>
+      <c r="B422" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423" t="s">
+        <v>812</v>
+      </c>
+      <c r="B423" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424" t="s">
+        <v>813</v>
+      </c>
+      <c r="B424" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425" t="s">
+        <v>814</v>
+      </c>
+      <c r="B425" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426" t="s">
+        <v>815</v>
+      </c>
+      <c r="B426" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427" t="s">
+        <v>816</v>
+      </c>
+      <c r="B427" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428" t="s">
+        <v>817</v>
+      </c>
+      <c r="B428" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429" t="s">
+        <v>818</v>
+      </c>
+      <c r="B429" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430" t="s">
+        <v>819</v>
+      </c>
+      <c r="B430" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431" t="s">
+        <v>820</v>
+      </c>
+      <c r="B431" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432" t="s">
+        <v>821</v>
+      </c>
+      <c r="B432" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433" t="s">
+        <v>822</v>
+      </c>
+      <c r="B433" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434" t="s">
+        <v>823</v>
+      </c>
+      <c r="B434" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435" t="s">
+        <v>824</v>
+      </c>
+      <c r="B435" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436" t="s">
+        <v>825</v>
+      </c>
+      <c r="B436" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437" t="s">
+        <v>826</v>
+      </c>
+      <c r="B437" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438" t="s">
+        <v>827</v>
+      </c>
+      <c r="B438" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439" t="s">
+        <v>828</v>
+      </c>
+      <c r="B439" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440" t="s">
+        <v>829</v>
+      </c>
+      <c r="B440" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441" t="s">
+        <v>830</v>
+      </c>
+      <c r="B441" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442" t="s">
+        <v>831</v>
+      </c>
+      <c r="B442" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443" t="s">
+        <v>832</v>
+      </c>
+      <c r="B443" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444" t="s">
+        <v>833</v>
+      </c>
+      <c r="B444" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445" t="s">
+        <v>834</v>
+      </c>
+      <c r="B445" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446" t="s">
+        <v>835</v>
+      </c>
+      <c r="B446" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447" t="s">
+        <v>836</v>
+      </c>
+      <c r="B447" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448" t="s">
+        <v>837</v>
+      </c>
+      <c r="B448" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449" t="s">
+        <v>838</v>
+      </c>
+      <c r="B449" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
+        <v>839</v>
+      </c>
+      <c r="B450" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451" t="s">
+        <v>840</v>
+      </c>
+      <c r="B451" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452" t="s">
+        <v>841</v>
+      </c>
+      <c r="B452" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453" t="s">
+        <v>842</v>
+      </c>
+      <c r="B453" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454" t="s">
+        <v>843</v>
+      </c>
+      <c r="B454" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455" t="s">
+        <v>844</v>
+      </c>
+      <c r="B455" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456" t="s">
+        <v>856</v>
+      </c>
+      <c r="B456" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457" t="s">
+        <v>845</v>
+      </c>
+      <c r="B457" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458" t="s">
+        <v>846</v>
+      </c>
+      <c r="B458" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459" t="s">
+        <v>847</v>
+      </c>
+      <c r="B459" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460" t="s">
+        <v>848</v>
+      </c>
+      <c r="B460" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461" t="s">
+        <v>849</v>
+      </c>
+      <c r="B461" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462" t="s">
+        <v>850</v>
+      </c>
+      <c r="B462" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463" t="s">
+        <v>851</v>
+      </c>
+      <c r="B463" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464" t="s">
+        <v>852</v>
+      </c>
+      <c r="B464" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A465" t="s">
+        <v>853</v>
+      </c>
+      <c r="B465" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A466" t="s">
+        <v>854</v>
+      </c>
+      <c r="B466" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A467" t="s">
+        <v>855</v>
+      </c>
+      <c r="B467" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A468" t="s">
+        <v>857</v>
+      </c>
+      <c r="B468" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A469" t="s">
+        <v>858</v>
+      </c>
+      <c r="B469" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A470" t="s">
+        <v>859</v>
+      </c>
+      <c r="B470" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A471" t="s">
+        <v>860</v>
+      </c>
+      <c r="B471" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A472" t="s">
+        <v>861</v>
+      </c>
+      <c r="B472" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A473" t="s">
+        <v>862</v>
+      </c>
+      <c r="B473" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A474" t="s">
+        <v>863</v>
+      </c>
+      <c r="B474" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A475" t="s">
+        <v>864</v>
+      </c>
+      <c r="B475" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A476" t="s">
+        <v>865</v>
+      </c>
+      <c r="B476" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A477" t="s">
+        <v>866</v>
+      </c>
+      <c r="B477" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A478" t="s">
+        <v>867</v>
+      </c>
+      <c r="B478" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A479" t="s">
+        <v>868</v>
+      </c>
+      <c r="B479" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A480" t="s">
+        <v>869</v>
+      </c>
+      <c r="B480" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A481" t="s">
+        <v>870</v>
+      </c>
+      <c r="B481" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A482" t="s">
+        <v>871</v>
+      </c>
+      <c r="B482" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A483" t="s">
+        <v>872</v>
+      </c>
+      <c r="B483" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A484" t="s">
+        <v>873</v>
+      </c>
+      <c r="B484" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A485" t="s">
+        <v>874</v>
+      </c>
+      <c r="B485" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A486" t="s">
+        <v>875</v>
+      </c>
+      <c r="B486" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A487" t="s">
+        <v>876</v>
+      </c>
+      <c r="B487" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A488" t="s">
+        <v>877</v>
+      </c>
+      <c r="B488" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A489" t="s">
+        <v>878</v>
+      </c>
+      <c r="B489" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A490" t="s">
+        <v>879</v>
+      </c>
+      <c r="B490" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A491" t="s">
+        <v>880</v>
+      </c>
+      <c r="B491" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A492" t="s">
+        <v>881</v>
+      </c>
+      <c r="B492" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A493" t="s">
+        <v>882</v>
+      </c>
+      <c r="B493" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A494" t="s">
+        <v>883</v>
+      </c>
+      <c r="B494" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A495" t="s">
+        <v>884</v>
+      </c>
+      <c r="B495" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A496" t="s">
+        <v>885</v>
+      </c>
+      <c r="B496" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A497" t="s">
+        <v>886</v>
+      </c>
+      <c r="B497" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A498" t="s">
+        <v>887</v>
+      </c>
+      <c r="B498" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A499" t="s">
+        <v>888</v>
+      </c>
+      <c r="B499" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A500" t="s">
+        <v>889</v>
+      </c>
+      <c r="B500" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739752B5-7629-480E-BC0C-86CF6D4A0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB2C7C-C118-4470-8B4F-2FE69FAEDA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1119">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -6323,6 +6323,668 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>エンゼツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scalp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supersede</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swerve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taboo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vacate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viscous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vortex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>barb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boycott</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discredit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>façade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groundbreaking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infuse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insanity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intersperse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invariably</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jarring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outlaw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plateau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>primate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ravage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revitalize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propagate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cache</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cohort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intoxicated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incumbent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>podium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expulsion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perpetrator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>secession</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seismic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omnipotent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opaque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ventilation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perpendicular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bereavement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contemplation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taxonomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>binge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auxiliary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encapsulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lien</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plurality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>antecedent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>augment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horticulture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conjugate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tactful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unravel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upheaval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vernacular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjudicate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>concentric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corollary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countermeasure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>demise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manifold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monotone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>munition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deferential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preponderance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recede</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zoologist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repudiate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syndicate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unanimous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vigilant</t>
+  </si>
+  <si>
+    <t>acclaimed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admirable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avalanche</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crunch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dismantle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formidable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messiah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mushroom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭皮</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に優先する；～の後任になる</t>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急に曲がる、それる；～の方向を変える</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁じられた、タブーの</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を案内する；門番</t>
+    <rPh sb="2" eb="4">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（家などを）退去する；（役職などを）辞任する</t>
+    <rPh sb="1" eb="2">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイキョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粘性の</t>
+    <rPh sb="0" eb="2">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渦、渦巻き</t>
+    <rPh sb="0" eb="1">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウズマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛辣な言葉</t>
+    <rPh sb="0" eb="2">
+      <t>シンラツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をボイコットする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挑戦的な</t>
+    <rPh sb="0" eb="3">
+      <t>チョウセンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～の信ぴょう性を失わせる</t>
+    <rPh sb="2" eb="3">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正面；（実際とは異なる）外見</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>革新的な</t>
+    <rPh sb="0" eb="3">
+      <t>カクシンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を吹き込む</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神異常</t>
+    <rPh sb="0" eb="4">
+      <t>セイシンイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ユーモアなどを）ちりばめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相変わらず；常に</t>
+    <rPh sb="0" eb="2">
+      <t>アイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動揺させる；食い違う；神経に触る</t>
+    <rPh sb="0" eb="2">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を法的に禁じる；無法者</t>
+    <rPh sb="2" eb="4">
+      <t>ホウテキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ムホウモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高地、大地；伸び悩む</t>
+    <rPh sb="0" eb="2">
+      <t>コウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霊長類</t>
+    <rPh sb="0" eb="3">
+      <t>レイチョウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に被害を与える、～を荒廃させる</t>
+    <rPh sb="2" eb="4">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を放棄する；中止する；絶交する；拒絶する</t>
+    <rPh sb="2" eb="4">
+      <t>ホウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョゼツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を活性化させる</t>
+    <rPh sb="2" eb="5">
+      <t>カッセイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬意（のしるし）、あいさつ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6649,10 +7311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="E497" sqref="E497"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10661,6 +11323,584 @@
         <v>991</v>
       </c>
     </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A501" t="s">
+        <v>993</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A502" t="s">
+        <v>994</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A503" t="s">
+        <v>995</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A504" t="s">
+        <v>996</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A505" t="s">
+        <v>997</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A506" t="s">
+        <v>998</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A507" t="s">
+        <v>999</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A508" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A509" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A510" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A511" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A512" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A513" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A514" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A515" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A516" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A517" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A518" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A519" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A520" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A521" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A522" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A523" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A524" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A525" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A526" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A527" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A528" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A540" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A549" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A550" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A551" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A552" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A553" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A554" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A555" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A556" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A557" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A558" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A559" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A560" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A561" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A562" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A563" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A564" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A565" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A566" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A567" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A568" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A569" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A570" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A587" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A588" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A589" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A590" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A591" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A592" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A593" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A594" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A595" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A596" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A597" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A599" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A600" t="s">
+        <v>1092</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/words.xlsx
+++ b/utils/words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisu\my-discord-bot\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB2C7C-C118-4470-8B4F-2FE69FAEDA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20043E24-9481-474E-813D-B555CE13C47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1045">
   <si>
     <t>evaporate</t>
     <phoneticPr fontId="1"/>
@@ -5638,10 +5639,7 @@
       <t>タテモノ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>クル</t>
+      <t>コウハイクル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6428,301 +6426,6 @@
   </si>
   <si>
     <t>salute</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tabulate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>propagate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cache</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>postulate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cohort</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>intoxicated</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>incumbent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>podium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expulsion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>perpetrator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>secession</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>seismic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>omnipotent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>opaque</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ventilation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>perpendicular</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bereavement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>contemplation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taxonomy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>binge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>auxiliary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>encapsulate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lien</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>plurality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>antecedent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>convene</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>augment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>horticulture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>salient</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>libel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>conjugate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formative</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delve</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tactful</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unravel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upheaval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vernacular</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>volition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>adjudicate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentric</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>corollary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>countermeasure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>demise</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evade</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>freak</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>groan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>groove</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manifold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>monotone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>munition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deferential</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ordain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>peck</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>preponderance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rash</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recede</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zoologist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>repudiate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>syndicate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unanimous</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vigilant</t>
-  </si>
-  <si>
-    <t>acclaimed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admirable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>avalanche</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>crunch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dismantle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formidable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gunk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>messiah</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mushroom</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7311,10 +7014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="B527" sqref="B527"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C528" sqref="C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11328,7 +11031,7 @@
         <v>993</v>
       </c>
       <c r="B501" t="s">
-        <v>1093</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.45">
@@ -11336,7 +11039,7 @@
         <v>994</v>
       </c>
       <c r="B502" t="s">
-        <v>1094</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.45">
@@ -11344,7 +11047,7 @@
         <v>995</v>
       </c>
       <c r="B503" t="s">
-        <v>1095</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.45">
@@ -11352,7 +11055,7 @@
         <v>996</v>
       </c>
       <c r="B504" t="s">
-        <v>1096</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.45">
@@ -11360,7 +11063,7 @@
         <v>997</v>
       </c>
       <c r="B505" t="s">
-        <v>1097</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.45">
@@ -11368,7 +11071,7 @@
         <v>998</v>
       </c>
       <c r="B506" t="s">
-        <v>1098</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.45">
@@ -11376,7 +11079,7 @@
         <v>999</v>
       </c>
       <c r="B507" t="s">
-        <v>1099</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.45">
@@ -11384,7 +11087,7 @@
         <v>1000</v>
       </c>
       <c r="B508" t="s">
-        <v>1100</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.45">
@@ -11392,7 +11095,7 @@
         <v>1001</v>
       </c>
       <c r="B509" t="s">
-        <v>1101</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.45">
@@ -11400,7 +11103,7 @@
         <v>1002</v>
       </c>
       <c r="B510" t="s">
-        <v>1102</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.45">
@@ -11408,7 +11111,7 @@
         <v>1003</v>
       </c>
       <c r="B511" t="s">
-        <v>1103</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.45">
@@ -11416,7 +11119,7 @@
         <v>1004</v>
       </c>
       <c r="B512" t="s">
-        <v>1104</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.45">
@@ -11424,7 +11127,7 @@
         <v>1005</v>
       </c>
       <c r="B513" t="s">
-        <v>1105</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.45">
@@ -11432,7 +11135,7 @@
         <v>1006</v>
       </c>
       <c r="B514" t="s">
-        <v>1106</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.45">
@@ -11440,7 +11143,7 @@
         <v>1007</v>
       </c>
       <c r="B515" t="s">
-        <v>1107</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.45">
@@ -11448,7 +11151,7 @@
         <v>1008</v>
       </c>
       <c r="B516" t="s">
-        <v>1108</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.45">
@@ -11456,7 +11159,7 @@
         <v>1009</v>
       </c>
       <c r="B517" t="s">
-        <v>1109</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.45">
@@ -11464,7 +11167,7 @@
         <v>1010</v>
       </c>
       <c r="B518" t="s">
-        <v>1110</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.45">
@@ -11472,7 +11175,7 @@
         <v>1011</v>
       </c>
       <c r="B519" t="s">
-        <v>1111</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.45">
@@ -11480,7 +11183,7 @@
         <v>1012</v>
       </c>
       <c r="B520" t="s">
-        <v>1112</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.45">
@@ -11488,7 +11191,7 @@
         <v>1013</v>
       </c>
       <c r="B521" t="s">
-        <v>1113</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.45">
@@ -11496,7 +11199,7 @@
         <v>1014</v>
       </c>
       <c r="B522" t="s">
-        <v>1114</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.45">
@@ -11504,7 +11207,7 @@
         <v>1015</v>
       </c>
       <c r="B523" t="s">
-        <v>1115</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.45">
@@ -11512,7 +11215,7 @@
         <v>1016</v>
       </c>
       <c r="B524" t="s">
-        <v>1116</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.45">
@@ -11520,7 +11223,7 @@
         <v>1017</v>
       </c>
       <c r="B525" t="s">
-        <v>1117</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.45">
@@ -11528,377 +11231,7 @@
         <v>1018</v>
       </c>
       <c r="B526" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A527" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A528" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A529" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A530" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A531" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A532" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A533" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A534" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A535" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A536" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A537" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A538" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A539" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A540" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A541" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A542" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A543" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A544" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A545" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A546" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A547" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A548" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A549" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A550" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A551" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A552" t="s">
         <v>1044</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A553" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A554" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A555" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A556" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A557" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A558" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A559" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A560" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A561" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A562" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A563" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A564" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A565" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A566" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A567" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A568" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A569" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A570" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A571" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A572" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A573" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A574" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A575" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A576" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A577" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A578" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A579" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A580" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A581" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A582" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A583" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A584" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A585" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A586" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A587" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A588" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A589" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A590" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A591" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A592" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A593" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A594" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A595" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A596" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A597" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A598" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A599" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A600" t="s">
-        <v>1092</v>
       </c>
     </row>
   </sheetData>
